--- a/biology/Médecine/Veines_diploétiques/Veines_diploétiques.xlsx
+++ b/biology/Médecine/Veines_diploétiques/Veines_diploétiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veines_diplo%C3%A9tiques</t>
+          <t>Veines_diploétiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les veines diploétiques (ou veines diploïques ou veines de Breschet ou canaux veineux du diploé ou cavités veineuses du diploé) sont de grandes veines sans valve à parois minces qui drainent le diploë.
 Elles sont tapissées d'une seule couche d'endothélium soutenue par un tissu élastique.
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veines_diplo%C3%A9tiques</t>
+          <t>Veines_diploétiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>La veine diploétique frontale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle débouche dans la veine supra-orbitaire et dans le sinus longitudinal supérieur.
 </t>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veines_diplo%C3%A9tiques</t>
+          <t>Veines_diploétiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>La veine diploétique temporale antérieure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est circonscrite à l'os frontal, et débouche dans le sinus sphéno-pariétal et dans l'une des veines temporales profondes, par une ouverture dans la grande aile de l'os sphénoïde.
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Veines_diplo%C3%A9tiques</t>
+          <t>Veines_diploétiques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>La veine diploétique temporale postérieure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est circonscrite à l'os pariétal, et débouche dans le sinus transverse de la dure-mère par une ouverture à l'angle mastoïdien de l'os pariétal ou par le foramen mastoïdien.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Veines_diplo%C3%A9tiques</t>
+          <t>Veines_diploétiques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>La veine diploétique occipitale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plus large des quatre veines diploétiques, Elle est circonscrite à l'os occipital et débouche soit extérieurement dans la veine occipitale, soit intérieurement dans le sinus transverse de la dure-mère ou au confluent des sinus.
 </t>
